--- a/FinalProject/data/CSVexcelprocess.xlsx
+++ b/FinalProject/data/CSVexcelprocess.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\adity\Documents\GitHub\ENGR-Cheat-Sheet\FinalProject\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65773B3D-B673-4281-8BA3-775F61DFDC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C7123D2-7138-4ECF-AE35-165EA847430E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{280348E5-1151-435F-B8D5-E19FE9380131}"/>
   </bookViews>
@@ -51,10 +51,10 @@
     <t>From Text/CSV -&gt; select file</t>
   </si>
   <si>
-    <t>Create .txt file containing relevant data</t>
+    <t>Data tab -&gt; Get and Transform Data</t>
   </si>
   <si>
-    <t>Data tab -&gt; Get and Transform Data</t>
+    <t>Create .txt file containing relevant data, can save Excel sheet as .txt</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
   <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -425,7 +425,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -435,7 +435,7 @@
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
